--- a/biology/Zoologie/Angolatitan/Angolatitan.xlsx
+++ b/biology/Zoologie/Angolatitan/Angolatitan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Angolatitan (« titan angolais ») est un genre de dinosaure sauropode du Crétacé supérieur retrouvé en Angola. C'est le premier dinosaure à avoir été découvert dans ce pays. L'espèce-type, Angolatitan adamastor, a été décrite par Octávio Mateus et al. en 2011[1]. Le nom spécifique fait référence à Adamastor, un monstre marin mythologique[1].
-L'espèce-type est basée sur l'holotype MGUAN-PA-003 retrouvé dans une strate datée du Turonien de la formation géologique de Itombe[1]. Il est composé de fragments fossilisés de membres, dont le scapula, l'humérus, l'ulna, le radius, et trois métacarpes. Ces derniers sont situés au Musée géologique de l'université Agostinho Neto de Luanda[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Angolatitan (« titan angolais ») est un genre de dinosaure sauropode du Crétacé supérieur retrouvé en Angola. C'est le premier dinosaure à avoir été découvert dans ce pays. L'espèce-type, Angolatitan adamastor, a été décrite par Octávio Mateus et al. en 2011. Le nom spécifique fait référence à Adamastor, un monstre marin mythologique.
+L'espèce-type est basée sur l'holotype MGUAN-PA-003 retrouvé dans une strate datée du Turonien de la formation géologique de Itombe. Il est composé de fragments fossilisés de membres, dont le scapula, l'humérus, l'ulna, le radius, et trois métacarpes. Ces derniers sont situés au Musée géologique de l'université Agostinho Neto de Luanda.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lors de la guerre civile angolaise, il n'était pas possible d'effectuer des recherches paléontologiques en Angola[2]. 
-Après la fin de la guerre en 2002, le projet PaleoAngola a organisé les premières expéditions paléontologiques depuis les années 1960. La première de ces expéditions a débuté en 2005 et a mené à la découverte de l'Angolatitan par Octávio Mateus le 25 mai près de Iembe, dans la province de Bengo. L'extraction s'est effectuée en mai et août 2006[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors de la guerre civile angolaise, il n'était pas possible d'effectuer des recherches paléontologiques en Angola. 
+Après la fin de la guerre en 2002, le projet PaleoAngola a organisé les premières expéditions paléontologiques depuis les années 1960. La première de ces expéditions a débuté en 2005 et a mené à la découverte de l'Angolatitan par Octávio Mateus le 25 mai près de Iembe, dans la province de Bengo. L'extraction s'est effectuée en mai et août 2006.
 </t>
         </is>
       </c>
